--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/111.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/111.xlsx
@@ -479,13 +479,13 @@
         <v>-6.996689298882253</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.4557881126958</v>
+        <v>-21.45790505266918</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03534765435173057</v>
+        <v>-0.02553541756983227</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.870423522766608</v>
+        <v>-8.856025397543544</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.967276271382774</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.60681442382167</v>
+        <v>-21.60535261076847</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1628920654958077</v>
+        <v>-0.1519651351482528</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.37154437305974</v>
+        <v>-8.352472357271905</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.917235977192548</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.8449432812885</v>
+        <v>-21.84645398441038</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3066190893693734</v>
+        <v>-0.2963961760106542</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.271050836910304</v>
+        <v>-8.251846817937061</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.842258022167828</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.94941646902761</v>
+        <v>-21.94705018970402</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3298174269528848</v>
+        <v>-0.3212469979151829</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.807739212160241</v>
+        <v>-7.789889448089134</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.730539553263601</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.93476900445433</v>
+        <v>-21.93313118715391</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4629304169183781</v>
+        <v>-0.4559684711398912</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.09129436786879</v>
+        <v>-7.069450285187415</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.565425126974717</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.18937870406953</v>
+        <v>-22.18590750919402</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5662106869819564</v>
+        <v>-0.557958043390604</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.516928952136755</v>
+        <v>-6.493647501436507</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.339759864827008</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.5754635763498</v>
+        <v>-22.56953321102023</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7412762448724468</v>
+        <v>-0.7336591721737934</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.106535937714181</v>
+        <v>-6.082007790262868</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.047125597958872</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.8374605653409</v>
+        <v>-22.82834745654097</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8585195185479342</v>
+        <v>-0.8528433815754459</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.821501948366173</v>
+        <v>-5.800860561374058</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.679362897251768</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31953130943932</v>
+        <v>-23.31096088040162</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9484527998648347</v>
+        <v>-0.9425468795696014</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.523497423800238</v>
+        <v>-5.50514409202184</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.246094518536879</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76051972883505</v>
+        <v>-23.75312755045227</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.192169792180545</v>
+        <v>-1.185457185752271</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.182181187400305</v>
+        <v>-5.172994743497372</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.759075659733321</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23967662484078</v>
+        <v>-24.23183465782625</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.128954933391334</v>
+        <v>-1.124901946698662</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.006240497280637</v>
+        <v>-4.998916764993998</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.232406897223513</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85262608276651</v>
+        <v>-24.84531701750047</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.047768085359345</v>
+        <v>-1.044560896854649</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.903141120471135</v>
+        <v>-4.897279201237704</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.698603693433737</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.45198410160221</v>
+        <v>-25.44138962372161</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9587148252784892</v>
+        <v>-0.9528969071068604</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.777708760293565</v>
+        <v>-4.774980694461826</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.185396303603829</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.09183776431657</v>
+        <v>-26.08157084989605</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9169871516693701</v>
+        <v>-0.9126066015166143</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.766869832069615</v>
+        <v>-4.762748399280805</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.716559117291054</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.85613131881452</v>
+        <v>-26.84487193600001</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8316006467387005</v>
+        <v>-0.829385926627988</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.684763850746645</v>
+        <v>-4.68052508179303</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.322682727182132</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64367943447495</v>
+        <v>-27.63616991992737</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7251816342665628</v>
+        <v>-0.724946961936951</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.70378697646581</v>
+        <v>-4.700398894707039</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.020151144094297</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.49516842644432</v>
+        <v>-28.48508484978131</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5766047155810176</v>
+        <v>-0.5774700697964615</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.925992338567095</v>
+        <v>-4.918121037511362</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.815374410711645</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.18003273087893</v>
+        <v>-29.17203920465153</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3017203044887246</v>
+        <v>-0.3010847335960257</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.16047888591807</v>
+        <v>-5.15174711965376</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.716738201773311</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.60219847383704</v>
+        <v>-29.59311225457488</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1126037408627206</v>
+        <v>-0.1140802209365289</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.482410210090685</v>
+        <v>-5.473986451258991</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.717697110921901</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.1993466615689</v>
+        <v>-30.19307406575865</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3209093870334948</v>
+        <v>0.3226645404987172</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.766500621113379</v>
+        <v>-5.756302152788995</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.805066993637074</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.73854300640378</v>
+        <v>-30.72907055559914</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3408027559749717</v>
+        <v>0.3413552137509331</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.039732547884655</v>
+        <v>-6.029113624969716</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.970193510356539</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.08853234098562</v>
+        <v>-31.08162172977924</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6247611638122588</v>
+        <v>0.6238078074732104</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.338910434098648</v>
+        <v>-6.330369339102148</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.195802406687148</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.28910140319737</v>
+        <v>-31.28086831563349</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8297718887626033</v>
+        <v>0.8292340980072427</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.562685167404212</v>
+        <v>-6.550413760168256</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.464689287743485</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58583234147448</v>
+        <v>-31.57661900803378</v>
       </c>
       <c r="F25" t="n">
-        <v>1.051023894524839</v>
+        <v>1.050725665105958</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.588440455579121</v>
+        <v>-6.576433054713977</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.766881457133794</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49610684294942</v>
+        <v>-31.48581303899113</v>
       </c>
       <c r="F26" t="n">
-        <v>1.08287577426279</v>
+        <v>1.085730954273068</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.728872288824386</v>
+        <v>-6.711374533247697</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.087255144712466</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.58421652470496</v>
+        <v>-31.57315270216514</v>
       </c>
       <c r="F27" t="n">
-        <v>1.334112059139815</v>
+        <v>1.336282778188726</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.001385531586225</v>
+        <v>-6.986239388312522</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.412825009762085</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40773315482307</v>
+        <v>-31.39761291060855</v>
       </c>
       <c r="F28" t="n">
-        <v>1.480484035728382</v>
+        <v>1.481134273641682</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.146119690874374</v>
+        <v>-7.12726768039555</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.738548898075418</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.21178175959712</v>
+        <v>-31.20169573843067</v>
       </c>
       <c r="F29" t="n">
-        <v>1.507911364251775</v>
+        <v>1.509275397167644</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.42840116935631</v>
+        <v>-7.408605580552171</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.056204503843179</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.08328154761056</v>
+        <v>-31.070995473354</v>
       </c>
       <c r="F30" t="n">
-        <v>1.616447316697287</v>
+        <v>1.616070863168535</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.447600299322685</v>
+        <v>-7.430151433814665</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.362071617536866</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.81502174082294</v>
+        <v>-30.80519728152387</v>
       </c>
       <c r="F31" t="n">
-        <v>1.555432510998188</v>
+        <v>1.558512585324345</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.432698606392328</v>
+        <v>-7.418911607027628</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.659323810179065</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.40861082249346</v>
+        <v>-30.39783300685535</v>
       </c>
       <c r="F32" t="n">
-        <v>1.508835386549622</v>
+        <v>1.511260333955612</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.44106369714162</v>
+        <v>-7.430894562858437</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.944866203519356</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90801807587974</v>
+        <v>-29.89857251461286</v>
       </c>
       <c r="F33" t="n">
-        <v>1.479731128670877</v>
+        <v>1.482918761148106</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.703143799249462</v>
+        <v>-7.692373317121649</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.220094097949152</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.30982119617493</v>
+        <v>-29.29841758765785</v>
       </c>
       <c r="F34" t="n">
-        <v>1.468535302945642</v>
+        <v>1.472822961967927</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.68655539895002</v>
+        <v>-7.673658198835098</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.488933122836213</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85647336741964</v>
+        <v>-28.84674913276135</v>
       </c>
       <c r="F35" t="n">
-        <v>1.496114190681909</v>
+        <v>1.499751611790894</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.696499638917325</v>
+        <v>-7.686408728744013</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.745931774894347</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.23046537215238</v>
+        <v>-28.22146226600696</v>
       </c>
       <c r="F36" t="n">
-        <v>1.406317801557282</v>
+        <v>1.409925888625066</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.56375332446685</v>
+        <v>-7.559162547018818</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.993088291335869</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.570517891215</v>
+        <v>-27.56237036127128</v>
       </c>
       <c r="F37" t="n">
-        <v>1.505706422154796</v>
+        <v>1.511812791731573</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.487196365937829</v>
+        <v>-7.481882015473492</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.232253068679811</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.02238688633083</v>
+        <v>-27.01843412427893</v>
       </c>
       <c r="F38" t="n">
-        <v>1.369224906457999</v>
+        <v>1.376563305765238</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.454048899380146</v>
+        <v>-7.451037271150126</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.4547483541243</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.26860958560362</v>
+        <v>-26.26539261908519</v>
       </c>
       <c r="F39" t="n">
-        <v>1.425609822654129</v>
+        <v>1.431329960688419</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.411920327207939</v>
+        <v>-7.413871040947838</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.663760702555793</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.61139017049797</v>
+        <v>-25.60813409192461</v>
       </c>
       <c r="F40" t="n">
-        <v>1.444808952620504</v>
+        <v>1.452650919635035</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.108572118136467</v>
+        <v>-7.11175486160683</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.858592510279515</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.05478651671344</v>
+        <v>-25.05359848804478</v>
       </c>
       <c r="F41" t="n">
-        <v>1.47971157264341</v>
+        <v>1.486243285817608</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.126407215186974</v>
+        <v>-7.133276269834989</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.029405712885387</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.35218733986909</v>
+        <v>-24.35006062188199</v>
       </c>
       <c r="F42" t="n">
-        <v>1.492447435531723</v>
+        <v>1.498074682435542</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.865461362672255</v>
+        <v>-6.870976162418136</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.182502021188808</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.65208644553374</v>
+        <v>-23.64862502867197</v>
       </c>
       <c r="F43" t="n">
-        <v>1.442447562303784</v>
+        <v>1.448646823011032</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.844018178553966</v>
+        <v>-6.852251266117851</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.318293512248983</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.96737614481544</v>
+        <v>-22.96405162014593</v>
       </c>
       <c r="F44" t="n">
-        <v>1.555261395757846</v>
+        <v>1.562242897563801</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.765046050632689</v>
+        <v>-6.772100887541647</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.431643934303581</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.14221934383126</v>
+        <v>-22.14049352440724</v>
       </c>
       <c r="F45" t="n">
-        <v>1.607255983787487</v>
+        <v>1.613670360796879</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.636298943799351</v>
+        <v>-6.64520671431087</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.534689069711243</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.62626778214513</v>
+        <v>-21.62597933073998</v>
       </c>
       <c r="F46" t="n">
-        <v>1.605075486724843</v>
+        <v>1.613753473913617</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.509737223035524</v>
+        <v>-6.51595603977024</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.630157311753099</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.96116239896315</v>
+        <v>-20.96321578184726</v>
       </c>
       <c r="F47" t="n">
-        <v>1.679481282232421</v>
+        <v>1.686071663489023</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.487570465900931</v>
+        <v>-6.492826148282865</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.716352925175566</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.32345501026337</v>
+        <v>-20.32498526941271</v>
       </c>
       <c r="F48" t="n">
-        <v>1.716544843290503</v>
+        <v>1.723203670643242</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.473235897767137</v>
+        <v>-6.477171548295003</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.805248189560332</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.57273822783484</v>
+        <v>-19.5784485878554</v>
       </c>
       <c r="F49" t="n">
-        <v>1.869257861785459</v>
+        <v>1.877217164964796</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.227093958045437</v>
+        <v>-6.227353075409383</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.896828738524565</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.18770449203096</v>
+        <v>-19.19302373150216</v>
       </c>
       <c r="F50" t="n">
-        <v>1.88364620899479</v>
+        <v>1.892231305053092</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.224038328753615</v>
+        <v>-6.221681827443762</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.990880930965646</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.60102366800116</v>
+        <v>-18.60677314007665</v>
       </c>
       <c r="F51" t="n">
-        <v>1.84361502076849</v>
+        <v>1.851877442373576</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.263986403863177</v>
+        <v>-6.2611605578941</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.098648314183627</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.08706193210986</v>
+        <v>-18.08925709619311</v>
       </c>
       <c r="F52" t="n">
-        <v>1.859738965415575</v>
+        <v>1.87000099082923</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.285268250754857</v>
+        <v>-6.282193065435568</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.218513891694828</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.69328665202793</v>
+        <v>-17.69694362916438</v>
       </c>
       <c r="F53" t="n">
-        <v>1.953334112875795</v>
+        <v>1.964256154216483</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.197681692734077</v>
+        <v>-6.193838933336681</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.352454301631415</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.07329213520698</v>
+        <v>-17.07873359984985</v>
       </c>
       <c r="F54" t="n">
-        <v>2.012026640313109</v>
+        <v>2.023031794770535</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.185014275941899</v>
+        <v>-6.178756347152248</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.509554747381335</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.8322152065994</v>
+        <v>-16.83526105787749</v>
       </c>
       <c r="F55" t="n">
-        <v>1.978209379814658</v>
+        <v>1.987444713786261</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.418703915173567</v>
+        <v>-6.411135732543583</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.683069503886246</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.27596356130929</v>
+        <v>-16.27875029522343</v>
       </c>
       <c r="F56" t="n">
-        <v>2.000791702532938</v>
+        <v>2.009371909584374</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.296263627198549</v>
+        <v>-6.285806041510218</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.873529888888156</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.17965012603106</v>
+        <v>-16.18317021097524</v>
       </c>
       <c r="F57" t="n">
-        <v>2.043032721863084</v>
+        <v>2.053289858269872</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.461512059300275</v>
+        <v>-6.447964621272053</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.08391662031778</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.93341040617202</v>
+        <v>-15.93534645289132</v>
       </c>
       <c r="F58" t="n">
-        <v>1.913610932082111</v>
+        <v>1.923413390850276</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.615369105402088</v>
+        <v>-6.604393284985864</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.300725042185938</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66666619151315</v>
+        <v>-15.66807911449768</v>
       </c>
       <c r="F59" t="n">
-        <v>1.97823871385586</v>
+        <v>1.988241621905568</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.403684886078405</v>
+        <v>-6.394610889333411</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.522859122263894</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41403165067218</v>
+        <v>-15.41377253330824</v>
       </c>
       <c r="F60" t="n">
-        <v>2.049173314487929</v>
+        <v>2.059665123224328</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.447407274489225</v>
+        <v>-6.437267474247244</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.74745088519262</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.2574074266837</v>
+        <v>-15.25741720469743</v>
       </c>
       <c r="F61" t="n">
-        <v>1.986887367003433</v>
+        <v>1.996895164060007</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.29417113225951</v>
+        <v>-6.28695984713081</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.956019321449023</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.20476748974762</v>
+        <v>-15.20325189761888</v>
       </c>
       <c r="F62" t="n">
-        <v>1.999398335575868</v>
+        <v>2.011386180413543</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.381738134252823</v>
+        <v>-6.37438995693185</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.14896310516668</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.12523801504352</v>
+        <v>-15.12037345321094</v>
       </c>
       <c r="F63" t="n">
-        <v>1.970010515298842</v>
+        <v>1.980438766945972</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.44022043439486</v>
+        <v>-6.43424606800349</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.3221109020321</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.16780659783375</v>
+        <v>-15.16237980021147</v>
       </c>
       <c r="F64" t="n">
-        <v>1.817928178689719</v>
+        <v>1.828703549824399</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.432383356387195</v>
+        <v>-6.426428546023293</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.45887879828787</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.18504034703962</v>
+        <v>-15.178156625371</v>
       </c>
       <c r="F65" t="n">
-        <v>1.819018427221041</v>
+        <v>1.830942714969446</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.532251099657667</v>
+        <v>-6.525015369494633</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.56594029799862</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.18265940069543</v>
+        <v>-15.1741231947058</v>
       </c>
       <c r="F66" t="n">
-        <v>1.882531515429133</v>
+        <v>1.889806357647102</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.463834337562059</v>
+        <v>-6.454246995096039</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.64119863894181</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.0468183448982</v>
+        <v>-15.03930394134375</v>
       </c>
       <c r="F67" t="n">
-        <v>1.697966617196227</v>
+        <v>1.704297881088882</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.250766529295039</v>
+        <v>-6.245144171398087</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.67255047920309</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.15619520652482</v>
+        <v>-15.14642208179786</v>
       </c>
       <c r="F68" t="n">
-        <v>1.663098220221389</v>
+        <v>1.670646846823906</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.377880707834827</v>
+        <v>-6.371847673361055</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.67012013864282</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.06159292365002</v>
+        <v>-15.05208869430074</v>
       </c>
       <c r="F69" t="n">
-        <v>1.646617378073019</v>
+        <v>1.655212252145055</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.180120380068118</v>
+        <v>-6.168093423175507</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.63035378440476</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.10037252611839</v>
+        <v>-15.09030117197254</v>
       </c>
       <c r="F70" t="n">
-        <v>1.538809887650677</v>
+        <v>1.543420221126178</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.150106766912127</v>
+        <v>-6.140338531192031</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.54512347267281</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.11275149150542</v>
+        <v>-15.10246502105743</v>
       </c>
       <c r="F71" t="n">
-        <v>1.435055383921009</v>
+        <v>1.441029750312379</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.14006963581435</v>
+        <v>-6.126981764431619</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.42457680609074</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.2259760015363</v>
+        <v>-15.2147606197836</v>
       </c>
       <c r="F72" t="n">
-        <v>1.354504106781718</v>
+        <v>1.359461559744769</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.996264387830914</v>
+        <v>-5.983914756485087</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.26549410970945</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.33596887802815</v>
+        <v>-15.32709044155783</v>
       </c>
       <c r="F73" t="n">
-        <v>1.280660547063834</v>
+        <v>1.284938428072385</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.137683800463296</v>
+        <v>-6.125524840385278</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.06641906202278</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.46987877611295</v>
+        <v>-15.46138168217825</v>
       </c>
       <c r="F74" t="n">
-        <v>1.158655380699972</v>
+        <v>1.163329271264743</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.040255671619414</v>
+        <v>-6.027060242085612</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.840227153567673</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.7064529293961</v>
+        <v>-15.69699759011549</v>
       </c>
       <c r="F75" t="n">
-        <v>1.090795965387192</v>
+        <v>1.095029845333941</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.073075574717015</v>
+        <v>-6.059635694839866</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.586852765715145</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.72713831745002</v>
+        <v>-15.7181865458767</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9030727687182591</v>
+        <v>0.909003134047827</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.182824000865522</v>
+        <v>-6.169877910681931</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.312405009698791</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.79801913900655</v>
+        <v>-15.78884247311735</v>
       </c>
       <c r="F77" t="n">
-        <v>0.744316937735797</v>
+        <v>0.7479250248035801</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.104956788496168</v>
+        <v>-6.090891115740053</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.031437262091867</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.95397845806114</v>
+        <v>-15.94514402265262</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7594973040575679</v>
+        <v>0.7626164904386596</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.07639521037965</v>
+        <v>-6.064197138246698</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.743924725832699</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.06544292561993</v>
+        <v>-16.05727828415218</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4819728292571409</v>
+        <v>0.4858498117026044</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.089918203373537</v>
+        <v>-6.077612573089512</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.459320630760061</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.55948195852855</v>
+        <v>-16.5506524121269</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4707036684289019</v>
+        <v>0.4738717448786628</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.023804163512246</v>
+        <v>-6.010134500312352</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.191102983034062</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.06243365095556</v>
+        <v>-17.05656684271526</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2950220956731802</v>
+        <v>0.2991484174688563</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.103534087497895</v>
+        <v>-6.088695951656808</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.939538524391999</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.48967418304153</v>
+        <v>-17.48239934082356</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01966860932953433</v>
+        <v>-0.01617296941969014</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.147730709574806</v>
+        <v>-6.131460094721713</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.718912554239561</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.99738287915004</v>
+        <v>-17.99147206984794</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.02305669108830639</v>
+        <v>-0.01999128378275071</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.171809068394363</v>
+        <v>-6.154355313879476</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.542842668597936</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.77590344363071</v>
+        <v>-18.77247136081014</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1163438311159105</v>
+        <v>-0.1130828635356782</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.166538718991828</v>
+        <v>-6.14859606379025</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.409581395200947</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.46842148831548</v>
+        <v>-19.46399204809405</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2794166551618586</v>
+        <v>-0.2765565861447133</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.254423506431491</v>
+        <v>-6.235146152355245</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.332674933703133</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.13246595700733</v>
+        <v>-20.12906809723483</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4175555441865405</v>
+        <v>-0.4114198405685622</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.489545624675165</v>
+        <v>-6.468293111824686</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.319590800506</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.88520189927189</v>
+        <v>-20.88111957853802</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5122849412398846</v>
+        <v>-0.505992789402165</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.816463735852033</v>
+        <v>-6.795426339303699</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.361203595556685</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.7189682413487</v>
+        <v>-21.71224096789983</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6299926705677288</v>
+        <v>-0.6245072048630502</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.067739132783994</v>
+        <v>-7.046203057535234</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.467123196139324</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.71683409891351</v>
+        <v>-22.70895790885091</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8519535823256674</v>
+        <v>-0.8476903683377176</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.12371826141017</v>
+        <v>-7.100089691222371</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.636067770498812</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.80188072692915</v>
+        <v>-23.79318807271977</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.11541238436998</v>
+        <v>-1.112234529906486</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.503188307399508</v>
+        <v>-7.482341582118982</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.851218363626991</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.03750876644576</v>
+        <v>-25.02861077394798</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.066580983783234</v>
+        <v>-1.066272976350618</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.861772516053385</v>
+        <v>-7.840158216694753</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.114657000939893</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.29946899694758</v>
+        <v>-26.28815094605068</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.29413980840379</v>
+        <v>-1.295078497722238</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.162930450048478</v>
+        <v>-8.142997969052066</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.415399996851592</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.58263529473465</v>
+        <v>-27.57115835111457</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.559138647611181</v>
+        <v>-1.558067955107326</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.484695547987618</v>
+        <v>-8.464464837572326</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.729445516292614</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.08272682720673</v>
+        <v>-29.06875649008452</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.82501261904775</v>
+        <v>-1.827711350838287</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.814028828556744</v>
+        <v>-8.79452658016462</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.053213046564098</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.69931117080023</v>
+        <v>-30.68355879067503</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.093643990357258</v>
+        <v>-2.098655222395846</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.121366467231619</v>
+        <v>-9.105002961248054</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.365767523888012</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.53795665079243</v>
+        <v>-32.51962043053807</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.123999833993933</v>
+        <v>-2.131528904568982</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.48445834021679</v>
+        <v>-9.469229083826351</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.643634829537364</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.25994064892631</v>
+        <v>-34.24031617536252</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.480814222161987</v>
+        <v>-2.490059334147323</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.872342367024089</v>
+        <v>-9.861302989518595</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.873181311360998</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.25151181921218</v>
+        <v>-36.23155000417457</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.872174332851662</v>
+        <v>-2.880984323225842</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.33953586322648</v>
+        <v>-10.32926894880596</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.04173167142793</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.30466736449715</v>
+        <v>-38.28907876610199</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.140057686110532</v>
+        <v>-3.149400578233207</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.6964138084838</v>
+        <v>-10.68776515533623</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.11707078078822</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.50648538608783</v>
+        <v>-40.48930052695063</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.502763327553219</v>
+        <v>-3.512062218614091</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.86287960329539</v>
+        <v>-10.85343404202851</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.11693811333908</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.41638325215846</v>
+        <v>-42.39849437603242</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.950351906219282</v>
+        <v>-3.961718847184859</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.1405849713499</v>
+        <v>-11.13256211108129</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.995883955958353</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.65435059052311</v>
+        <v>-44.63423966077606</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.178409409540263</v>
+        <v>-4.189038110468936</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.27316505956689</v>
+        <v>-11.26693646481844</v>
       </c>
     </row>
   </sheetData>
